--- a/Table/Table_xls/D点卡服表格/DMT3首充礼包.xlsx
+++ b/Table/Table_xls/D点卡服表格/DMT3首充礼包.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 角色id1对应的礼包</t>
         </r>
       </text>
@@ -39,10 +40,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 角色id2对应的礼包</t>
         </r>
       </text>
@@ -52,10 +54,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 角色id3对应的礼包</t>
         </r>
       </text>
@@ -65,10 +68,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 角色id4对应的礼包</t>
         </r>
       </text>
@@ -78,10 +82,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 角色id5对应的礼包</t>
         </r>
       </text>
@@ -91,10 +96,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 角色id6对应的礼包</t>
         </r>
       </text>
@@ -104,11 +110,12 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
-角色id6对应的礼包</t>
+          <t xml:space="preserve">作者:
+角色id7对应的礼包</t>
         </r>
       </text>
     </comment>
@@ -117,11 +124,12 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
-角色id6对应的礼包</t>
+          <t xml:space="preserve">作者:
+角色id1对应的礼包</t>
         </r>
       </text>
     </comment>
@@ -130,11 +138,124 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
+角色id1对应的礼包</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+角色id1对应的礼包</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+角色id2对应的礼包</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+角色id3对应的礼包</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CH1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+角色id4对应的礼包</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CO1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+角色id5对应的礼包</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CV1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
 角色id6对应的礼包</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+角色id7对应的礼包</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DJ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+角色id1对应的礼包</t>
         </r>
       </text>
     </comment>
@@ -153,10 +274,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 0-不绑定
 1-绑定</t>
         </r>
@@ -167,10 +289,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 0-关联随机：后续“物品1类”~“物品8类”所有物品放在一起随即一次，只可获得一个种类。
 1-不关联随机：后续“物品1类”~“物品8类”每个类别各自随机，可同时获得多个种类。</t>
         </r>
@@ -181,10 +304,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 公告编号：没有时填0
 公告格式为4参数：
 参数1-角色名；
@@ -200,10 +324,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 0-不发
 1-发</t>
         </r>
@@ -214,10 +339,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 用于控制重要物品的总产出。
 填写方式：物品类型库id@总数量，多个物品用分号隔开。</t>
         </r>
@@ -228,10 +354,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 0-永不清除
 1-每日0点清除
 2-每周一0点清除
@@ -244,10 +371,11 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:
+          <t xml:space="preserve">作者:
 0-不打
 1-打
 奖励ID打元宝标记则该奖励下所有物品均有元宝标记</t>
@@ -259,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289">
   <si>
     <t>id</t>
   </si>
@@ -475,18 +603,7 @@
     <t>标签6</t>
   </si>
   <si>
-    <r>
-      <t>物品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id7</t>
-    </r>
+    <t>物品id7</t>
   </si>
   <si>
     <t>物品数量7</t>
@@ -507,18 +624,7 @@
     <t>标签7</t>
   </si>
   <si>
-    <r>
-      <t>物品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id8</t>
-    </r>
+    <t>物品id8</t>
   </si>
   <si>
     <t>物品数量8</t>
@@ -539,18 +645,7 @@
     <t>标签8</t>
   </si>
   <si>
-    <r>
-      <t>物品</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id9</t>
-    </r>
+    <t>物品id9</t>
   </si>
   <si>
     <t>物品数量9</t>
@@ -571,37 +666,217 @@
     <t>标签9</t>
   </si>
   <si>
-    <t>506005</t>
+    <t>物品id10</t>
   </si>
   <si>
-    <t>332018</t>
+    <t>物品数量10</t>
+  </si>
+  <si>
+    <t>宠物id10</t>
+  </si>
+  <si>
+    <t>宠物数量10</t>
+  </si>
+  <si>
+    <t>物品10是否绑定</t>
+  </si>
+  <si>
+    <t>宠物10是否绑定</t>
+  </si>
+  <si>
+    <t>标签10</t>
+  </si>
+  <si>
+    <t>物品id11</t>
+  </si>
+  <si>
+    <t>物品数量11</t>
+  </si>
+  <si>
+    <t>宠物id11</t>
+  </si>
+  <si>
+    <t>宠物数量11</t>
+  </si>
+  <si>
+    <t>物品11是否绑定</t>
+  </si>
+  <si>
+    <t>宠物11是否绑定</t>
+  </si>
+  <si>
+    <t>标签11</t>
+  </si>
+  <si>
+    <t>物品id12</t>
+  </si>
+  <si>
+    <t>物品数量12</t>
+  </si>
+  <si>
+    <t>宠物id12</t>
+  </si>
+  <si>
+    <t>宠物数量12</t>
+  </si>
+  <si>
+    <t>物品12是否绑定</t>
+  </si>
+  <si>
+    <t>宠物12是否绑定</t>
+  </si>
+  <si>
+    <t>标签12</t>
+  </si>
+  <si>
+    <t>物品id13</t>
+  </si>
+  <si>
+    <t>物品数量13</t>
+  </si>
+  <si>
+    <t>宠物id13</t>
+  </si>
+  <si>
+    <t>宠物数量13</t>
+  </si>
+  <si>
+    <t>物品13是否绑定</t>
+  </si>
+  <si>
+    <t>宠物13是否绑定</t>
+  </si>
+  <si>
+    <t>标签13</t>
+  </si>
+  <si>
+    <t>物品id14</t>
+  </si>
+  <si>
+    <t>物品数量14</t>
+  </si>
+  <si>
+    <t>宠物id14</t>
+  </si>
+  <si>
+    <t>宠物数量14</t>
+  </si>
+  <si>
+    <t>物品14是否绑定</t>
+  </si>
+  <si>
+    <t>宠物14是否绑定</t>
+  </si>
+  <si>
+    <t>标签14</t>
+  </si>
+  <si>
+    <t>物品id15</t>
+  </si>
+  <si>
+    <t>物品数量15</t>
+  </si>
+  <si>
+    <t>宠物id15</t>
+  </si>
+  <si>
+    <t>宠物数量15</t>
+  </si>
+  <si>
+    <t>物品15是否绑定</t>
+  </si>
+  <si>
+    <t>宠物15是否绑定</t>
+  </si>
+  <si>
+    <t>标签15</t>
+  </si>
+  <si>
+    <t>物品id16</t>
+  </si>
+  <si>
+    <t>物品数量16</t>
+  </si>
+  <si>
+    <t>宠物id16</t>
+  </si>
+  <si>
+    <t>宠物数量16</t>
+  </si>
+  <si>
+    <t>物品16是否绑定</t>
+  </si>
+  <si>
+    <t>宠物16是否绑定</t>
+  </si>
+  <si>
+    <t>标签16</t>
+  </si>
+  <si>
+    <t>物品id17</t>
+  </si>
+  <si>
+    <t>物品数量17</t>
+  </si>
+  <si>
+    <t>宠物id17</t>
+  </si>
+  <si>
+    <t>宠物数量17</t>
+  </si>
+  <si>
+    <t>物品17是否绑定</t>
+  </si>
+  <si>
+    <t>宠物17是否绑定</t>
+  </si>
+  <si>
+    <t>标签17</t>
+  </si>
+  <si>
+    <t>物品id18</t>
+  </si>
+  <si>
+    <t>物品数量18</t>
+  </si>
+  <si>
+    <t>宠物id18</t>
+  </si>
+  <si>
+    <t>宠物数量18</t>
+  </si>
+  <si>
+    <t>物品18是否绑定</t>
+  </si>
+  <si>
+    <t>宠物18是否绑定</t>
+  </si>
+  <si>
+    <t>标签18</t>
+  </si>
+  <si>
+    <t>900004</t>
   </si>
   <si>
     <t>set:jiangli image:7day</t>
   </si>
   <si>
-    <t>332063</t>
+    <t>337013</t>
   </si>
   <si>
-    <t>332009</t>
+    <t>331301</t>
   </si>
   <si>
-    <t>332054</t>
+    <t>40008</t>
   </si>
   <si>
-    <t>335002</t>
+    <t>40009</t>
   </si>
   <si>
-    <t>35001</t>
+    <t>40010</t>
   </si>
   <si>
-    <t>35003</t>
-  </si>
-  <si>
-    <t>360005</t>
-  </si>
-  <si>
-    <t>310102</t>
+    <t>40011</t>
   </si>
   <si>
     <t>ID</t>
@@ -1076,7 +1351,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1101,36 +1376,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1139,6 +1394,21 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1151,6 +1421,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,9 +1457,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,14 +1494,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1210,71 +1525,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1349,7 +1607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,13 +1625,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,13 +1709,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,19 +1751,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,109 +1793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,17 +1816,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1577,30 +1835,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1640,157 +1874,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1823,47 +2087,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1917,12 +2186,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -2248,20 +2512,21 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BL11"/>
+  <dimension ref="A1:DW12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BE1" sqref="BE1"/>
+      <selection pane="bottomRight" activeCell="BE1" sqref="A1:DW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1"/>
@@ -2302,7 +2567,7 @@
     <col min="43" max="16384" width="7.5" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:64">
+    <row r="1" customHeight="1" spans="1:127">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2312,10 +2577,10 @@
       <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
@@ -2324,34 +2589,34 @@
       <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="18" t="s">
@@ -2360,10 +2625,10 @@
       <c r="S1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="18" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="18" t="s">
@@ -2375,10 +2640,10 @@
       <c r="X1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="19" t="s">
@@ -2387,82 +2652,82 @@
       <c r="AB1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AH1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="23" t="s">
+      <c r="AK1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AL1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="24" t="s">
+      <c r="AM1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AN1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="23" t="s">
+      <c r="AO1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="23" t="s">
+      <c r="AP1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="25" t="s">
+      <c r="AR1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="23" t="s">
+      <c r="AS1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="24" t="s">
+      <c r="AT1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="24" t="s">
+      <c r="AU1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="23" t="s">
+      <c r="AV1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="23" t="s">
+      <c r="AW1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="24" t="s">
+      <c r="AX1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="25" t="s">
+      <c r="AY1" s="23" t="s">
         <v>50</v>
       </c>
       <c r="AZ1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="24" t="s">
+      <c r="BA1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BB1" s="23" t="s">
         <v>53</v>
       </c>
       <c r="BC1" s="23" t="s">
@@ -2471,13 +2736,13 @@
       <c r="BD1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="24" t="s">
+      <c r="BE1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="25" t="s">
+      <c r="BF1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="23" t="s">
+      <c r="BG1" s="24" t="s">
         <v>58</v>
       </c>
       <c r="BH1" s="24" t="s">
@@ -2486,1253 +2751,3139 @@
       <c r="BI1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="23" t="s">
+      <c r="BJ1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="23" t="s">
+      <c r="BK1" s="24" t="s">
         <v>62</v>
       </c>
       <c r="BL1" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:63">
-      <c r="A2" s="11">
+      <c r="BM1" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:127">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="11">
+        <v>127</v>
+      </c>
+      <c r="E2" s="13">
         <v>1</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
       </c>
       <c r="G2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="11">
+        <v>127</v>
+      </c>
+      <c r="L2" s="13">
         <v>1</v>
       </c>
       <c r="M2" s="10">
         <v>0</v>
       </c>
       <c r="N2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="11">
+        <v>127</v>
+      </c>
+      <c r="S2" s="13">
         <v>1</v>
       </c>
       <c r="T2" s="10">
         <v>0</v>
       </c>
       <c r="U2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="11">
+        <v>127</v>
+      </c>
+      <c r="Z2" s="13">
         <v>1</v>
       </c>
       <c r="AA2" s="10">
         <v>0</v>
       </c>
       <c r="AB2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" s="11">
+        <v>127</v>
+      </c>
+      <c r="AG2" s="13">
         <v>1</v>
       </c>
       <c r="AH2" s="10">
         <v>0</v>
       </c>
       <c r="AI2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN2" s="11">
+        <v>127</v>
+      </c>
+      <c r="AN2" s="13">
         <v>1</v>
       </c>
       <c r="AO2" s="10">
         <v>0</v>
       </c>
       <c r="AP2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU2" s="11">
+        <v>127</v>
+      </c>
+      <c r="AU2" s="13">
         <v>1</v>
       </c>
       <c r="AV2" s="10">
         <v>0</v>
       </c>
       <c r="AW2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="BB2" s="11">
+        <v>127</v>
+      </c>
+      <c r="BB2" s="13">
         <v>1</v>
       </c>
       <c r="BC2" s="10">
         <v>0</v>
       </c>
       <c r="BD2" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="BI2" s="11">
+        <v>127</v>
+      </c>
+      <c r="BI2" s="13">
         <v>1</v>
       </c>
       <c r="BJ2" s="10">
         <v>0</v>
       </c>
       <c r="BK2" s="10">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="25"/>
+      <c r="BN2" s="25"/>
+      <c r="BO2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP2" s="27">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:64">
-      <c r="A3" s="11">
+      <c r="BR2" s="25">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="25"/>
+      <c r="BT2" s="25"/>
+      <c r="BU2" s="25"/>
+      <c r="BV2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW2" s="27">
+        <v>1</v>
+      </c>
+      <c r="BX2" s="25">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="25">
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="25"/>
+      <c r="CA2" s="25"/>
+      <c r="CB2" s="25"/>
+      <c r="CC2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD2" s="27">
+        <v>1</v>
+      </c>
+      <c r="CE2" s="25">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="25">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="25"/>
+      <c r="CH2" s="25"/>
+      <c r="CI2" s="25"/>
+      <c r="CJ2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK2" s="27">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="25">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="25">
+        <v>1</v>
+      </c>
+      <c r="CN2" s="25"/>
+      <c r="CO2" s="25"/>
+      <c r="CP2" s="25"/>
+      <c r="CQ2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR2" s="27">
+        <v>1</v>
+      </c>
+      <c r="CS2" s="25">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="25">
+        <v>1</v>
+      </c>
+      <c r="CU2" s="25"/>
+      <c r="CV2" s="25"/>
+      <c r="CW2" s="25"/>
+      <c r="CX2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="CY2" s="27">
+        <v>1</v>
+      </c>
+      <c r="CZ2" s="25">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="25">
+        <v>1</v>
+      </c>
+      <c r="DB2" s="25"/>
+      <c r="DC2" s="25"/>
+      <c r="DD2" s="25"/>
+      <c r="DE2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="DF2" s="27">
+        <v>1</v>
+      </c>
+      <c r="DG2" s="25">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="25">
+        <v>1</v>
+      </c>
+      <c r="DI2" s="25"/>
+      <c r="DJ2" s="25"/>
+      <c r="DK2" s="25"/>
+      <c r="DL2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="DM2" s="27">
+        <v>1</v>
+      </c>
+      <c r="DN2" s="25">
+        <v>0</v>
+      </c>
+      <c r="DO2" s="25">
+        <v>1</v>
+      </c>
+      <c r="DP2" s="25"/>
+      <c r="DQ2" s="25"/>
+      <c r="DR2" s="25"/>
+      <c r="DS2" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="DT2" s="27">
+        <v>1</v>
+      </c>
+      <c r="DU2" s="25">
+        <v>0</v>
+      </c>
+      <c r="DV2" s="25">
+        <v>1</v>
+      </c>
+      <c r="DW2" s="25"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:127">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="15">
+        <v>335129</v>
+      </c>
+      <c r="C3" s="13">
         <v>1</v>
       </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="10">
         <v>0</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="11">
+      <c r="H3" s="10"/>
+      <c r="I3" s="15">
+        <v>335129</v>
+      </c>
+      <c r="J3" s="13">
         <v>1</v>
       </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="10">
         <v>0</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="11">
+      <c r="O3" s="10"/>
+      <c r="P3" s="15">
+        <v>335129</v>
+      </c>
+      <c r="Q3" s="13">
         <v>1</v>
       </c>
+      <c r="R3" s="14"/>
+      <c r="S3" s="13"/>
       <c r="T3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="10">
         <v>0</v>
       </c>
-      <c r="V3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="X3" s="11">
+      <c r="V3" s="10"/>
+      <c r="W3" s="15">
+        <v>335129</v>
+      </c>
+      <c r="X3" s="13">
         <v>1</v>
       </c>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="13"/>
       <c r="AA3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="10">
         <v>0</v>
       </c>
-      <c r="AC3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE3" s="11">
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="15">
+        <v>335129</v>
+      </c>
+      <c r="AE3" s="13">
         <v>1</v>
       </c>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="13"/>
       <c r="AH3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" s="10">
         <v>0</v>
       </c>
-      <c r="AJ3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL3" s="11">
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="15">
+        <v>335129</v>
+      </c>
+      <c r="AL3" s="13">
         <v>1</v>
       </c>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="13"/>
       <c r="AO3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" s="10">
         <v>0</v>
       </c>
-      <c r="AQ3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS3" s="11">
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="15">
+        <v>335129</v>
+      </c>
+      <c r="AS3" s="13">
         <v>1</v>
       </c>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="13"/>
       <c r="AV3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="10">
         <v>0</v>
       </c>
-      <c r="AX3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ3" s="11">
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="15">
+        <v>335129</v>
+      </c>
+      <c r="AZ3" s="13">
         <v>1</v>
       </c>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="13"/>
       <c r="BC3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="10">
         <v>0</v>
       </c>
-      <c r="BE3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG3" s="11">
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="15">
+        <v>335129</v>
+      </c>
+      <c r="BG3" s="13">
         <v>1</v>
       </c>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="13"/>
       <c r="BJ3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" s="10">
         <v>0</v>
       </c>
-      <c r="BL3" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:64">
-      <c r="A4" s="11">
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="28">
+        <v>335129</v>
+      </c>
+      <c r="BN3" s="27">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="26"/>
+      <c r="BP3" s="27"/>
+      <c r="BQ3" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="25">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="25"/>
+      <c r="BT3" s="28">
+        <v>335129</v>
+      </c>
+      <c r="BU3" s="27">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="26"/>
+      <c r="BW3" s="27"/>
+      <c r="BX3" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="25">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="25"/>
+      <c r="CA3" s="28">
+        <v>335129</v>
+      </c>
+      <c r="CB3" s="27">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="26"/>
+      <c r="CD3" s="27"/>
+      <c r="CE3" s="25">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="25"/>
+      <c r="CH3" s="28">
+        <v>335129</v>
+      </c>
+      <c r="CI3" s="27">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="26"/>
+      <c r="CK3" s="27"/>
+      <c r="CL3" s="25">
+        <v>1</v>
+      </c>
+      <c r="CM3" s="25">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="25"/>
+      <c r="CO3" s="28">
+        <v>335129</v>
+      </c>
+      <c r="CP3" s="27">
+        <v>1</v>
+      </c>
+      <c r="CQ3" s="26"/>
+      <c r="CR3" s="27"/>
+      <c r="CS3" s="25">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="25">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="25"/>
+      <c r="CV3" s="28">
+        <v>335129</v>
+      </c>
+      <c r="CW3" s="27">
+        <v>1</v>
+      </c>
+      <c r="CX3" s="26"/>
+      <c r="CY3" s="27"/>
+      <c r="CZ3" s="25">
+        <v>1</v>
+      </c>
+      <c r="DA3" s="25">
+        <v>0</v>
+      </c>
+      <c r="DB3" s="25"/>
+      <c r="DC3" s="28">
+        <v>335129</v>
+      </c>
+      <c r="DD3" s="27">
+        <v>1</v>
+      </c>
+      <c r="DE3" s="26"/>
+      <c r="DF3" s="27"/>
+      <c r="DG3" s="25">
+        <v>1</v>
+      </c>
+      <c r="DH3" s="25">
+        <v>0</v>
+      </c>
+      <c r="DI3" s="25"/>
+      <c r="DJ3" s="28">
+        <v>335129</v>
+      </c>
+      <c r="DK3" s="27">
+        <v>1</v>
+      </c>
+      <c r="DL3" s="26"/>
+      <c r="DM3" s="27"/>
+      <c r="DN3" s="25">
+        <v>1</v>
+      </c>
+      <c r="DO3" s="25">
+        <v>0</v>
+      </c>
+      <c r="DP3" s="25"/>
+      <c r="DQ3" s="28">
+        <v>335129</v>
+      </c>
+      <c r="DR3" s="27">
+        <v>1</v>
+      </c>
+      <c r="DS3" s="26"/>
+      <c r="DT3" s="27"/>
+      <c r="DU3" s="25">
+        <v>1</v>
+      </c>
+      <c r="DV3" s="25">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="25"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:127">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="15">
+        <v>335102</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10">
         <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
       </c>
       <c r="G4" s="10">
         <v>0</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="11">
+        <v>128</v>
+      </c>
+      <c r="I4" s="15">
+        <v>335102</v>
+      </c>
+      <c r="J4" s="13">
+        <v>2</v>
+      </c>
+      <c r="M4" s="10">
         <v>1</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
       </c>
       <c r="N4" s="10">
         <v>0</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="11">
+        <v>128</v>
+      </c>
+      <c r="P4" s="15">
+        <v>335102</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>2</v>
+      </c>
+      <c r="T4" s="10">
         <v>1</v>
-      </c>
-      <c r="T4" s="10">
-        <v>0</v>
       </c>
       <c r="U4" s="10">
         <v>0</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" s="11">
+        <v>128</v>
+      </c>
+      <c r="W4" s="15">
+        <v>335102</v>
+      </c>
+      <c r="X4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="10">
         <v>1</v>
-      </c>
-      <c r="AA4" s="10">
-        <v>0</v>
       </c>
       <c r="AB4" s="10">
         <v>0</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE4" s="11">
+        <v>128</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>335102</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="10">
         <v>1</v>
-      </c>
-      <c r="AH4" s="10">
-        <v>0</v>
       </c>
       <c r="AI4" s="10">
         <v>0</v>
       </c>
       <c r="AJ4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL4" s="11">
+        <v>128</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>335102</v>
+      </c>
+      <c r="AL4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="10">
         <v>1</v>
-      </c>
-      <c r="AO4" s="10">
-        <v>0</v>
       </c>
       <c r="AP4" s="10">
         <v>0</v>
       </c>
       <c r="AQ4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS4" s="11">
+        <v>128</v>
+      </c>
+      <c r="AR4" s="15">
+        <v>335102</v>
+      </c>
+      <c r="AS4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="10">
         <v>1</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>0</v>
       </c>
       <c r="AW4" s="10">
         <v>0</v>
       </c>
       <c r="AX4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ4" s="11">
+        <v>128</v>
+      </c>
+      <c r="AY4" s="15">
+        <v>335102</v>
+      </c>
+      <c r="AZ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="BC4" s="10">
         <v>1</v>
-      </c>
-      <c r="BC4" s="10">
-        <v>0</v>
       </c>
       <c r="BD4" s="10">
         <v>0</v>
       </c>
       <c r="BE4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG4" s="11">
+        <v>128</v>
+      </c>
+      <c r="BF4" s="15">
+        <v>335102</v>
+      </c>
+      <c r="BG4" s="13">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="10">
         <v>1</v>
-      </c>
-      <c r="BJ4" s="10">
-        <v>0</v>
       </c>
       <c r="BK4" s="10">
         <v>0</v>
       </c>
       <c r="BL4" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:64">
-      <c r="A5" s="11">
+        <v>128</v>
+      </c>
+      <c r="BM4" s="28">
+        <v>335102</v>
+      </c>
+      <c r="BN4" s="27">
+        <v>2</v>
+      </c>
+      <c r="BO4" s="25"/>
+      <c r="BP4" s="25"/>
+      <c r="BQ4" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="25">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT4" s="28">
+        <v>335102</v>
+      </c>
+      <c r="BU4" s="27">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="25"/>
+      <c r="BW4" s="25"/>
+      <c r="BX4" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="25">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA4" s="28">
+        <v>335102</v>
+      </c>
+      <c r="CB4" s="27">
+        <v>2</v>
+      </c>
+      <c r="CC4" s="25"/>
+      <c r="CD4" s="25"/>
+      <c r="CE4" s="25">
+        <v>1</v>
+      </c>
+      <c r="CF4" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH4" s="28">
+        <v>335102</v>
+      </c>
+      <c r="CI4" s="27">
+        <v>2</v>
+      </c>
+      <c r="CJ4" s="25"/>
+      <c r="CK4" s="25"/>
+      <c r="CL4" s="25">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="25">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO4" s="28">
+        <v>335102</v>
+      </c>
+      <c r="CP4" s="27">
+        <v>2</v>
+      </c>
+      <c r="CQ4" s="25"/>
+      <c r="CR4" s="25"/>
+      <c r="CS4" s="25">
+        <v>1</v>
+      </c>
+      <c r="CT4" s="25">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV4" s="28">
+        <v>335102</v>
+      </c>
+      <c r="CW4" s="27">
+        <v>2</v>
+      </c>
+      <c r="CX4" s="25"/>
+      <c r="CY4" s="25"/>
+      <c r="CZ4" s="25">
+        <v>1</v>
+      </c>
+      <c r="DA4" s="25">
+        <v>0</v>
+      </c>
+      <c r="DB4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC4" s="28">
+        <v>335102</v>
+      </c>
+      <c r="DD4" s="27">
+        <v>2</v>
+      </c>
+      <c r="DE4" s="25"/>
+      <c r="DF4" s="25"/>
+      <c r="DG4" s="25">
+        <v>1</v>
+      </c>
+      <c r="DH4" s="25">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ4" s="28">
+        <v>335102</v>
+      </c>
+      <c r="DK4" s="27">
+        <v>2</v>
+      </c>
+      <c r="DL4" s="25"/>
+      <c r="DM4" s="25"/>
+      <c r="DN4" s="25">
+        <v>1</v>
+      </c>
+      <c r="DO4" s="25">
+        <v>0</v>
+      </c>
+      <c r="DP4" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DQ4" s="28">
+        <v>335102</v>
+      </c>
+      <c r="DR4" s="27">
+        <v>2</v>
+      </c>
+      <c r="DS4" s="25"/>
+      <c r="DT4" s="25"/>
+      <c r="DU4" s="25">
+        <v>1</v>
+      </c>
+      <c r="DV4" s="25">
+        <v>0</v>
+      </c>
+      <c r="DW4" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:127">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="13">
         <v>1</v>
       </c>
       <c r="F5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="10">
         <v>0</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="11">
+        <v>128</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="13">
         <v>1</v>
       </c>
       <c r="M5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="10">
         <v>0</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="11">
+        <v>128</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q5" s="13">
         <v>1</v>
       </c>
       <c r="T5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="10">
         <v>0</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="X5" s="11">
+        <v>128</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="X5" s="13">
         <v>1</v>
       </c>
       <c r="AA5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="10">
         <v>0</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE5" s="11">
+        <v>128</v>
+      </c>
+      <c r="AD5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE5" s="13">
         <v>1</v>
       </c>
       <c r="AH5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="10">
         <v>0</v>
       </c>
       <c r="AJ5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL5" s="11">
+        <v>128</v>
+      </c>
+      <c r="AK5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL5" s="13">
         <v>1</v>
       </c>
       <c r="AO5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="10">
         <v>0</v>
       </c>
       <c r="AQ5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS5" s="11">
+        <v>128</v>
+      </c>
+      <c r="AR5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS5" s="13">
         <v>1</v>
       </c>
       <c r="AV5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="10">
         <v>0</v>
       </c>
       <c r="AX5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ5" s="11">
+        <v>128</v>
+      </c>
+      <c r="AY5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ5" s="13">
         <v>1</v>
       </c>
       <c r="BC5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="10">
         <v>0</v>
       </c>
       <c r="BE5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="BG5" s="11">
+        <v>128</v>
+      </c>
+      <c r="BF5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG5" s="13">
         <v>1</v>
       </c>
       <c r="BJ5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" s="10">
         <v>0</v>
       </c>
       <c r="BL5" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:64">
-      <c r="A6" s="11">
+        <v>128</v>
+      </c>
+      <c r="BM5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="BN5" s="27">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="25"/>
+      <c r="BP5" s="25"/>
+      <c r="BQ5" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="25">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="BU5" s="27">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="25"/>
+      <c r="BW5" s="25"/>
+      <c r="BX5" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="25">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="CB5" s="27">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="25"/>
+      <c r="CD5" s="25"/>
+      <c r="CE5" s="25">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI5" s="27">
+        <v>1</v>
+      </c>
+      <c r="CJ5" s="25"/>
+      <c r="CK5" s="25"/>
+      <c r="CL5" s="25">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="25">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="CP5" s="27">
+        <v>1</v>
+      </c>
+      <c r="CQ5" s="25"/>
+      <c r="CR5" s="25"/>
+      <c r="CS5" s="25">
+        <v>1</v>
+      </c>
+      <c r="CT5" s="25">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="CW5" s="27">
+        <v>1</v>
+      </c>
+      <c r="CX5" s="25"/>
+      <c r="CY5" s="25"/>
+      <c r="CZ5" s="25">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="25">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="DD5" s="27">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="25"/>
+      <c r="DF5" s="25"/>
+      <c r="DG5" s="25">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="25">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="DK5" s="27">
+        <v>1</v>
+      </c>
+      <c r="DL5" s="25"/>
+      <c r="DM5" s="25"/>
+      <c r="DN5" s="25">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="25">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DQ5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="DR5" s="27">
+        <v>1</v>
+      </c>
+      <c r="DS5" s="25"/>
+      <c r="DT5" s="25"/>
+      <c r="DU5" s="25">
+        <v>1</v>
+      </c>
+      <c r="DV5" s="25">
+        <v>0</v>
+      </c>
+      <c r="DW5" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:127">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
         <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="11">
+        <v>128</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="13">
+        <v>2</v>
+      </c>
+      <c r="M6" s="10">
         <v>1</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0</v>
       </c>
       <c r="N6" s="10">
         <v>0</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q6" s="11">
+        <v>128</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>2</v>
+      </c>
+      <c r="T6" s="10">
         <v>1</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0</v>
       </c>
       <c r="U6" s="10">
         <v>0</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="X6" s="11">
+        <v>128</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="X6" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="10">
         <v>1</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>0</v>
       </c>
       <c r="AB6" s="10">
         <v>0</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE6" s="11">
+        <v>128</v>
+      </c>
+      <c r="AD6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="10">
         <v>1</v>
-      </c>
-      <c r="AH6" s="10">
-        <v>0</v>
       </c>
       <c r="AI6" s="10">
         <v>0</v>
       </c>
       <c r="AJ6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL6" s="11">
+        <v>128</v>
+      </c>
+      <c r="AK6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL6" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="10">
         <v>1</v>
-      </c>
-      <c r="AO6" s="10">
-        <v>0</v>
       </c>
       <c r="AP6" s="10">
         <v>0</v>
       </c>
       <c r="AQ6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS6" s="11">
+        <v>128</v>
+      </c>
+      <c r="AR6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS6" s="13">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="10">
         <v>1</v>
-      </c>
-      <c r="AV6" s="10">
-        <v>0</v>
       </c>
       <c r="AW6" s="10">
         <v>0</v>
       </c>
       <c r="AX6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ6" s="11">
+        <v>128</v>
+      </c>
+      <c r="AY6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ6" s="13">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="10">
         <v>1</v>
-      </c>
-      <c r="BC6" s="10">
-        <v>0</v>
       </c>
       <c r="BD6" s="10">
         <v>0</v>
       </c>
       <c r="BE6" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG6" s="11">
+        <v>128</v>
+      </c>
+      <c r="BF6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG6" s="13">
+        <v>2</v>
+      </c>
+      <c r="BJ6" s="10">
         <v>1</v>
-      </c>
-      <c r="BJ6" s="10">
-        <v>0</v>
       </c>
       <c r="BK6" s="10">
         <v>0</v>
       </c>
       <c r="BL6" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:63">
-      <c r="A7" s="11">
+        <v>128</v>
+      </c>
+      <c r="BM6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN6" s="27">
+        <v>2</v>
+      </c>
+      <c r="BO6" s="25"/>
+      <c r="BP6" s="25"/>
+      <c r="BQ6" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="25">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="BU6" s="27">
+        <v>2</v>
+      </c>
+      <c r="BV6" s="25"/>
+      <c r="BW6" s="25"/>
+      <c r="BX6" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="25">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB6" s="27">
+        <v>2</v>
+      </c>
+      <c r="CC6" s="25"/>
+      <c r="CD6" s="25"/>
+      <c r="CE6" s="25">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI6" s="27">
+        <v>2</v>
+      </c>
+      <c r="CJ6" s="25"/>
+      <c r="CK6" s="25"/>
+      <c r="CL6" s="25">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="25">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="CP6" s="27">
+        <v>2</v>
+      </c>
+      <c r="CQ6" s="25"/>
+      <c r="CR6" s="25"/>
+      <c r="CS6" s="25">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="25">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="CW6" s="27">
+        <v>2</v>
+      </c>
+      <c r="CX6" s="25"/>
+      <c r="CY6" s="25"/>
+      <c r="CZ6" s="25">
+        <v>1</v>
+      </c>
+      <c r="DA6" s="25">
+        <v>0</v>
+      </c>
+      <c r="DB6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="DD6" s="27">
+        <v>2</v>
+      </c>
+      <c r="DE6" s="25"/>
+      <c r="DF6" s="25"/>
+      <c r="DG6" s="25">
+        <v>1</v>
+      </c>
+      <c r="DH6" s="25">
+        <v>0</v>
+      </c>
+      <c r="DI6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="DK6" s="27">
+        <v>2</v>
+      </c>
+      <c r="DL6" s="25"/>
+      <c r="DM6" s="25"/>
+      <c r="DN6" s="25">
+        <v>1</v>
+      </c>
+      <c r="DO6" s="25">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DQ6" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="DR6" s="27">
+        <v>2</v>
+      </c>
+      <c r="DS6" s="25"/>
+      <c r="DT6" s="25"/>
+      <c r="DU6" s="25">
+        <v>1</v>
+      </c>
+      <c r="DV6" s="25">
+        <v>0</v>
+      </c>
+      <c r="DW6" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:127">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="15">
+        <v>310102</v>
+      </c>
+      <c r="C7" s="13">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10">
         <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="H7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="15">
+        <v>310102</v>
+      </c>
+      <c r="J7" s="13">
+        <v>10</v>
+      </c>
+      <c r="M7" s="10">
         <v>1</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
       </c>
       <c r="N7" s="10">
         <v>0</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="11">
+      <c r="O7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="15">
+        <v>310102</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>10</v>
+      </c>
+      <c r="T7" s="10">
         <v>1</v>
-      </c>
-      <c r="T7" s="10">
-        <v>0</v>
       </c>
       <c r="U7" s="10">
         <v>0</v>
       </c>
-      <c r="W7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="X7" s="11">
+      <c r="V7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="W7" s="15">
+        <v>310102</v>
+      </c>
+      <c r="X7" s="13">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="10">
         <v>1</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>0</v>
       </c>
       <c r="AB7" s="10">
         <v>0</v>
       </c>
-      <c r="AD7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE7" s="11">
+      <c r="AC7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>310102</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="10">
         <v>1</v>
-      </c>
-      <c r="AH7" s="10">
-        <v>0</v>
       </c>
       <c r="AI7" s="10">
         <v>0</v>
       </c>
-      <c r="AK7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL7" s="11">
+      <c r="AJ7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>310102</v>
+      </c>
+      <c r="AL7" s="13">
+        <v>10</v>
+      </c>
+      <c r="AO7" s="10">
         <v>1</v>
-      </c>
-      <c r="AO7" s="10">
-        <v>0</v>
       </c>
       <c r="AP7" s="10">
         <v>0</v>
       </c>
-      <c r="AR7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS7" s="11">
+      <c r="AQ7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR7" s="15">
+        <v>310102</v>
+      </c>
+      <c r="AS7" s="13">
+        <v>10</v>
+      </c>
+      <c r="AV7" s="10">
         <v>1</v>
-      </c>
-      <c r="AV7" s="10">
-        <v>0</v>
       </c>
       <c r="AW7" s="10">
         <v>0</v>
       </c>
-      <c r="AY7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ7" s="11">
+      <c r="AX7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY7" s="15">
+        <v>310102</v>
+      </c>
+      <c r="AZ7" s="13">
+        <v>10</v>
+      </c>
+      <c r="BC7" s="10">
         <v>1</v>
-      </c>
-      <c r="BC7" s="10">
-        <v>0</v>
       </c>
       <c r="BD7" s="10">
         <v>0</v>
       </c>
-      <c r="BF7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG7" s="11">
+      <c r="BE7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>310102</v>
+      </c>
+      <c r="BG7" s="13">
+        <v>10</v>
+      </c>
+      <c r="BJ7" s="10">
         <v>1</v>
-      </c>
-      <c r="BJ7" s="10">
-        <v>0</v>
       </c>
       <c r="BK7" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:63">
-      <c r="A8" s="11">
+      <c r="BL7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM7" s="28">
+        <v>310102</v>
+      </c>
+      <c r="BN7" s="27">
+        <v>10</v>
+      </c>
+      <c r="BO7" s="25"/>
+      <c r="BP7" s="25"/>
+      <c r="BQ7" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="25">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT7" s="28">
+        <v>310102</v>
+      </c>
+      <c r="BU7" s="27">
+        <v>10</v>
+      </c>
+      <c r="BV7" s="25"/>
+      <c r="BW7" s="25"/>
+      <c r="BX7" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="25">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA7" s="28">
+        <v>310102</v>
+      </c>
+      <c r="CB7" s="27">
+        <v>10</v>
+      </c>
+      <c r="CC7" s="25"/>
+      <c r="CD7" s="25"/>
+      <c r="CE7" s="25">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH7" s="28">
+        <v>310102</v>
+      </c>
+      <c r="CI7" s="27">
+        <v>10</v>
+      </c>
+      <c r="CJ7" s="25"/>
+      <c r="CK7" s="25"/>
+      <c r="CL7" s="25">
+        <v>1</v>
+      </c>
+      <c r="CM7" s="25">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO7" s="28">
+        <v>310102</v>
+      </c>
+      <c r="CP7" s="27">
+        <v>10</v>
+      </c>
+      <c r="CQ7" s="25"/>
+      <c r="CR7" s="25"/>
+      <c r="CS7" s="25">
+        <v>1</v>
+      </c>
+      <c r="CT7" s="25">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="CV7" s="28">
+        <v>310102</v>
+      </c>
+      <c r="CW7" s="27">
+        <v>10</v>
+      </c>
+      <c r="CX7" s="25"/>
+      <c r="CY7" s="25"/>
+      <c r="CZ7" s="25">
+        <v>1</v>
+      </c>
+      <c r="DA7" s="25">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC7" s="28">
+        <v>310102</v>
+      </c>
+      <c r="DD7" s="27">
+        <v>10</v>
+      </c>
+      <c r="DE7" s="25"/>
+      <c r="DF7" s="25"/>
+      <c r="DG7" s="25">
+        <v>1</v>
+      </c>
+      <c r="DH7" s="25">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ7" s="28">
+        <v>310102</v>
+      </c>
+      <c r="DK7" s="27">
+        <v>10</v>
+      </c>
+      <c r="DL7" s="25"/>
+      <c r="DM7" s="25"/>
+      <c r="DN7" s="25">
+        <v>1</v>
+      </c>
+      <c r="DO7" s="25">
+        <v>0</v>
+      </c>
+      <c r="DP7" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DQ7" s="28">
+        <v>310102</v>
+      </c>
+      <c r="DR7" s="27">
+        <v>10</v>
+      </c>
+      <c r="DS7" s="25"/>
+      <c r="DT7" s="25"/>
+      <c r="DU7" s="25">
+        <v>1</v>
+      </c>
+      <c r="DV7" s="25">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:127">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="15">
+        <v>310103</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
         <v>1</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="I8" s="15">
+        <v>310103</v>
+      </c>
+      <c r="J8" s="13">
+        <v>5</v>
+      </c>
+      <c r="M8" s="10">
         <v>1</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
       </c>
       <c r="N8" s="10">
         <v>0</v>
       </c>
-      <c r="P8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="11">
+      <c r="P8" s="15">
+        <v>310103</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>5</v>
+      </c>
+      <c r="T8" s="10">
         <v>1</v>
-      </c>
-      <c r="T8" s="10">
-        <v>0</v>
       </c>
       <c r="U8" s="10">
         <v>0</v>
       </c>
-      <c r="W8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="X8" s="11">
+      <c r="W8" s="15">
+        <v>310103</v>
+      </c>
+      <c r="X8" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="10">
         <v>1</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>0</v>
       </c>
       <c r="AB8" s="10">
         <v>0</v>
       </c>
-      <c r="AD8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE8" s="11">
+      <c r="AD8" s="15">
+        <v>310103</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="10">
         <v>1</v>
-      </c>
-      <c r="AH8" s="10">
-        <v>0</v>
       </c>
       <c r="AI8" s="10">
         <v>0</v>
       </c>
-      <c r="AK8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL8" s="11">
+      <c r="AK8" s="15">
+        <v>310103</v>
+      </c>
+      <c r="AL8" s="13">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="10">
         <v>1</v>
-      </c>
-      <c r="AO8" s="10">
-        <v>0</v>
       </c>
       <c r="AP8" s="10">
         <v>0</v>
       </c>
-      <c r="AR8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS8" s="11">
+      <c r="AR8" s="15">
+        <v>310103</v>
+      </c>
+      <c r="AS8" s="13">
+        <v>5</v>
+      </c>
+      <c r="AV8" s="10">
         <v>1</v>
-      </c>
-      <c r="AV8" s="10">
-        <v>0</v>
       </c>
       <c r="AW8" s="10">
         <v>0</v>
       </c>
-      <c r="AY8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AZ8" s="11">
+      <c r="AY8" s="15">
+        <v>310103</v>
+      </c>
+      <c r="AZ8" s="13">
+        <v>5</v>
+      </c>
+      <c r="BC8" s="10">
         <v>1</v>
-      </c>
-      <c r="BC8" s="10">
-        <v>0</v>
       </c>
       <c r="BD8" s="10">
         <v>0</v>
       </c>
-      <c r="BF8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG8" s="11">
+      <c r="BF8" s="15">
+        <v>310103</v>
+      </c>
+      <c r="BG8" s="13">
+        <v>5</v>
+      </c>
+      <c r="BJ8" s="10">
         <v>1</v>
-      </c>
-      <c r="BJ8" s="10">
-        <v>0</v>
       </c>
       <c r="BK8" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:63">
-      <c r="A9" s="11">
+      <c r="BM8" s="28">
+        <v>310103</v>
+      </c>
+      <c r="BN8" s="27">
+        <v>5</v>
+      </c>
+      <c r="BO8" s="25"/>
+      <c r="BP8" s="25"/>
+      <c r="BQ8" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="25">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="25"/>
+      <c r="BT8" s="28">
+        <v>310103</v>
+      </c>
+      <c r="BU8" s="27">
+        <v>5</v>
+      </c>
+      <c r="BV8" s="25"/>
+      <c r="BW8" s="25"/>
+      <c r="BX8" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="25">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="25"/>
+      <c r="CA8" s="28">
+        <v>310103</v>
+      </c>
+      <c r="CB8" s="27">
+        <v>5</v>
+      </c>
+      <c r="CC8" s="25"/>
+      <c r="CD8" s="25"/>
+      <c r="CE8" s="25">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="25"/>
+      <c r="CH8" s="28">
+        <v>310103</v>
+      </c>
+      <c r="CI8" s="27">
+        <v>5</v>
+      </c>
+      <c r="CJ8" s="25"/>
+      <c r="CK8" s="25"/>
+      <c r="CL8" s="25">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CN8" s="25"/>
+      <c r="CO8" s="28">
+        <v>310103</v>
+      </c>
+      <c r="CP8" s="27">
+        <v>5</v>
+      </c>
+      <c r="CQ8" s="25"/>
+      <c r="CR8" s="25"/>
+      <c r="CS8" s="25">
+        <v>1</v>
+      </c>
+      <c r="CT8" s="25">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="25"/>
+      <c r="CV8" s="28">
+        <v>310103</v>
+      </c>
+      <c r="CW8" s="27">
+        <v>5</v>
+      </c>
+      <c r="CX8" s="25"/>
+      <c r="CY8" s="25"/>
+      <c r="CZ8" s="25">
+        <v>1</v>
+      </c>
+      <c r="DA8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="25"/>
+      <c r="DC8" s="28">
+        <v>310103</v>
+      </c>
+      <c r="DD8" s="27">
+        <v>5</v>
+      </c>
+      <c r="DE8" s="25"/>
+      <c r="DF8" s="25"/>
+      <c r="DG8" s="25">
+        <v>1</v>
+      </c>
+      <c r="DH8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="25"/>
+      <c r="DJ8" s="28">
+        <v>310103</v>
+      </c>
+      <c r="DK8" s="27">
+        <v>5</v>
+      </c>
+      <c r="DL8" s="25"/>
+      <c r="DM8" s="25"/>
+      <c r="DN8" s="25">
+        <v>1</v>
+      </c>
+      <c r="DO8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="25"/>
+      <c r="DQ8" s="28">
+        <v>310103</v>
+      </c>
+      <c r="DR8" s="27">
+        <v>5</v>
+      </c>
+      <c r="DS8" s="25"/>
+      <c r="DT8" s="25"/>
+      <c r="DU8" s="25">
+        <v>1</v>
+      </c>
+      <c r="DV8" s="25">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="25"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:127">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="13">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10">
         <v>1</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="I9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="13">
+        <v>30</v>
+      </c>
+      <c r="M9" s="10">
         <v>1</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
       </c>
       <c r="N9" s="10">
         <v>0</v>
       </c>
-      <c r="P9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="11">
+      <c r="P9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>30</v>
+      </c>
+      <c r="T9" s="10">
         <v>1</v>
-      </c>
-      <c r="T9" s="10">
-        <v>0</v>
       </c>
       <c r="U9" s="10">
         <v>0</v>
       </c>
-      <c r="W9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="X9" s="11">
+      <c r="W9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="X9" s="13">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="10">
         <v>1</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>0</v>
       </c>
       <c r="AB9" s="10">
         <v>0</v>
       </c>
-      <c r="AD9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE9" s="11">
+      <c r="AD9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>30</v>
+      </c>
+      <c r="AH9" s="10">
         <v>1</v>
-      </c>
-      <c r="AH9" s="10">
-        <v>0</v>
       </c>
       <c r="AI9" s="10">
         <v>0</v>
       </c>
-      <c r="AK9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL9" s="11">
+      <c r="AK9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL9" s="13">
+        <v>30</v>
+      </c>
+      <c r="AO9" s="10">
         <v>1</v>
-      </c>
-      <c r="AO9" s="10">
-        <v>0</v>
       </c>
       <c r="AP9" s="10">
         <v>0</v>
       </c>
-      <c r="AR9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS9" s="11">
+      <c r="AR9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS9" s="13">
+        <v>30</v>
+      </c>
+      <c r="AV9" s="10">
         <v>1</v>
-      </c>
-      <c r="AV9" s="10">
-        <v>0</v>
       </c>
       <c r="AW9" s="10">
         <v>0</v>
       </c>
-      <c r="AY9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ9" s="11">
+      <c r="AY9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ9" s="13">
+        <v>30</v>
+      </c>
+      <c r="BC9" s="10">
         <v>1</v>
-      </c>
-      <c r="BC9" s="10">
-        <v>0</v>
       </c>
       <c r="BD9" s="10">
         <v>0</v>
       </c>
-      <c r="BF9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG9" s="11">
+      <c r="BF9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BG9" s="13">
+        <v>30</v>
+      </c>
+      <c r="BJ9" s="10">
         <v>1</v>
-      </c>
-      <c r="BJ9" s="10">
-        <v>0</v>
       </c>
       <c r="BK9" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:63">
-      <c r="A10" s="11">
+      <c r="BM9" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN9" s="27">
+        <v>30</v>
+      </c>
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR9" s="25">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="BU9" s="27">
+        <v>30</v>
+      </c>
+      <c r="BV9" s="25"/>
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY9" s="25">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="25"/>
+      <c r="CA9" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB9" s="27">
+        <v>30</v>
+      </c>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25"/>
+      <c r="CE9" s="25">
+        <v>1</v>
+      </c>
+      <c r="CF9" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="CI9" s="27">
+        <v>30</v>
+      </c>
+      <c r="CJ9" s="25"/>
+      <c r="CK9" s="25"/>
+      <c r="CL9" s="25">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="25">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="25"/>
+      <c r="CO9" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="CP9" s="27">
+        <v>30</v>
+      </c>
+      <c r="CQ9" s="25"/>
+      <c r="CR9" s="25"/>
+      <c r="CS9" s="25">
+        <v>1</v>
+      </c>
+      <c r="CT9" s="25">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="25"/>
+      <c r="CV9" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="CW9" s="27">
+        <v>30</v>
+      </c>
+      <c r="CX9" s="25"/>
+      <c r="CY9" s="25"/>
+      <c r="CZ9" s="25">
+        <v>1</v>
+      </c>
+      <c r="DA9" s="25">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="25"/>
+      <c r="DC9" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="DD9" s="27">
+        <v>30</v>
+      </c>
+      <c r="DE9" s="25"/>
+      <c r="DF9" s="25"/>
+      <c r="DG9" s="25">
+        <v>1</v>
+      </c>
+      <c r="DH9" s="25">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="25"/>
+      <c r="DJ9" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="DK9" s="27">
+        <v>30</v>
+      </c>
+      <c r="DL9" s="25"/>
+      <c r="DM9" s="25"/>
+      <c r="DN9" s="25">
+        <v>1</v>
+      </c>
+      <c r="DO9" s="25">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="25"/>
+      <c r="DQ9" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR9" s="27">
+        <v>30</v>
+      </c>
+      <c r="DS9" s="25"/>
+      <c r="DT9" s="25"/>
+      <c r="DU9" s="25">
+        <v>1</v>
+      </c>
+      <c r="DV9" s="25">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="25"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:127">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="13">
+        <v>30</v>
+      </c>
+      <c r="F10" s="10">
         <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="I10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" s="13">
+        <v>30</v>
+      </c>
+      <c r="M10" s="10">
         <v>1</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
       </c>
       <c r="N10" s="10">
         <v>0</v>
       </c>
-      <c r="P10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="11">
+      <c r="P10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>30</v>
+      </c>
+      <c r="T10" s="10">
         <v>1</v>
-      </c>
-      <c r="T10" s="10">
-        <v>0</v>
       </c>
       <c r="U10" s="10">
         <v>0</v>
       </c>
-      <c r="W10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="X10" s="11">
+      <c r="W10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="X10" s="13">
+        <v>30</v>
+      </c>
+      <c r="AA10" s="10">
         <v>1</v>
-      </c>
-      <c r="AA10" s="10">
-        <v>0</v>
       </c>
       <c r="AB10" s="10">
         <v>0</v>
       </c>
-      <c r="AD10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE10" s="11">
+      <c r="AD10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>30</v>
+      </c>
+      <c r="AH10" s="10">
         <v>1</v>
-      </c>
-      <c r="AH10" s="10">
-        <v>0</v>
       </c>
       <c r="AI10" s="10">
         <v>0</v>
       </c>
-      <c r="AK10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL10" s="11">
+      <c r="AK10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL10" s="13">
+        <v>30</v>
+      </c>
+      <c r="AO10" s="10">
         <v>1</v>
-      </c>
-      <c r="AO10" s="10">
-        <v>0</v>
       </c>
       <c r="AP10" s="10">
         <v>0</v>
       </c>
-      <c r="AR10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS10" s="11">
+      <c r="AR10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS10" s="13">
+        <v>30</v>
+      </c>
+      <c r="AV10" s="10">
         <v>1</v>
-      </c>
-      <c r="AV10" s="10">
-        <v>0</v>
       </c>
       <c r="AW10" s="10">
         <v>0</v>
       </c>
-      <c r="AY10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ10" s="11">
+      <c r="AY10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ10" s="13">
+        <v>30</v>
+      </c>
+      <c r="BC10" s="10">
         <v>1</v>
-      </c>
-      <c r="BC10" s="10">
-        <v>0</v>
       </c>
       <c r="BD10" s="10">
         <v>0</v>
       </c>
-      <c r="BF10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG10" s="11">
+      <c r="BF10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG10" s="13">
+        <v>30</v>
+      </c>
+      <c r="BJ10" s="10">
         <v>1</v>
-      </c>
-      <c r="BJ10" s="10">
-        <v>0</v>
       </c>
       <c r="BK10" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:63">
-      <c r="A11" s="11">
+      <c r="BM10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="BN10" s="27">
+        <v>30</v>
+      </c>
+      <c r="BO10" s="25"/>
+      <c r="BP10" s="25"/>
+      <c r="BQ10" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR10" s="25">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="25"/>
+      <c r="BT10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="BU10" s="27">
+        <v>30</v>
+      </c>
+      <c r="BV10" s="25"/>
+      <c r="BW10" s="25"/>
+      <c r="BX10" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY10" s="25">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="25"/>
+      <c r="CA10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="CB10" s="27">
+        <v>30</v>
+      </c>
+      <c r="CC10" s="25"/>
+      <c r="CD10" s="25"/>
+      <c r="CE10" s="25">
+        <v>1</v>
+      </c>
+      <c r="CF10" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="25"/>
+      <c r="CH10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="CI10" s="27">
+        <v>30</v>
+      </c>
+      <c r="CJ10" s="25"/>
+      <c r="CK10" s="25"/>
+      <c r="CL10" s="25">
+        <v>1</v>
+      </c>
+      <c r="CM10" s="25">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="25"/>
+      <c r="CO10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="CP10" s="27">
+        <v>30</v>
+      </c>
+      <c r="CQ10" s="25"/>
+      <c r="CR10" s="25"/>
+      <c r="CS10" s="25">
+        <v>1</v>
+      </c>
+      <c r="CT10" s="25">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="25"/>
+      <c r="CV10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="CW10" s="27">
+        <v>30</v>
+      </c>
+      <c r="CX10" s="25"/>
+      <c r="CY10" s="25"/>
+      <c r="CZ10" s="25">
+        <v>1</v>
+      </c>
+      <c r="DA10" s="25">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="25"/>
+      <c r="DC10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="DD10" s="27">
+        <v>30</v>
+      </c>
+      <c r="DE10" s="25"/>
+      <c r="DF10" s="25"/>
+      <c r="DG10" s="25">
+        <v>1</v>
+      </c>
+      <c r="DH10" s="25">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="25"/>
+      <c r="DJ10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="DK10" s="27">
+        <v>30</v>
+      </c>
+      <c r="DL10" s="25"/>
+      <c r="DM10" s="25"/>
+      <c r="DN10" s="25">
+        <v>1</v>
+      </c>
+      <c r="DO10" s="25">
+        <v>0</v>
+      </c>
+      <c r="DP10" s="25"/>
+      <c r="DQ10" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="DR10" s="27">
+        <v>30</v>
+      </c>
+      <c r="DS10" s="25"/>
+      <c r="DT10" s="25"/>
+      <c r="DU10" s="25">
+        <v>1</v>
+      </c>
+      <c r="DV10" s="25">
+        <v>0</v>
+      </c>
+      <c r="DW10" s="25"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:127">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="11">
-        <v>3</v>
+      <c r="B11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="13">
+        <v>30</v>
       </c>
       <c r="F11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="11">
-        <v>3</v>
+      <c r="I11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="13">
+        <v>30</v>
       </c>
       <c r="M11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="10">
         <v>0</v>
       </c>
-      <c r="P11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>3</v>
+      <c r="P11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>30</v>
       </c>
       <c r="T11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="10">
         <v>0</v>
       </c>
-      <c r="W11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="X11" s="11">
-        <v>3</v>
+      <c r="W11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" s="13">
+        <v>30</v>
       </c>
       <c r="AA11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="10">
         <v>0</v>
       </c>
-      <c r="AD11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>3</v>
+      <c r="AD11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>30</v>
       </c>
       <c r="AH11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="10">
         <v>0</v>
       </c>
-      <c r="AK11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>3</v>
+      <c r="AK11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL11" s="13">
+        <v>30</v>
       </c>
       <c r="AO11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="10">
         <v>0</v>
       </c>
-      <c r="AR11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>3</v>
+      <c r="AR11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS11" s="13">
+        <v>30</v>
       </c>
       <c r="AV11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11" s="10">
         <v>0</v>
       </c>
-      <c r="AY11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>3</v>
+      <c r="AY11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ11" s="13">
+        <v>30</v>
       </c>
       <c r="BC11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="10">
         <v>0</v>
       </c>
-      <c r="BF11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG11" s="11">
-        <v>3</v>
+      <c r="BF11" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG11" s="13">
+        <v>30</v>
       </c>
       <c r="BJ11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK11" s="10">
         <v>0</v>
       </c>
+      <c r="BM11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN11" s="27">
+        <v>30</v>
+      </c>
+      <c r="BO11" s="25"/>
+      <c r="BP11" s="25"/>
+      <c r="BQ11" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="25">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="25"/>
+      <c r="BT11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="BU11" s="27">
+        <v>30</v>
+      </c>
+      <c r="BV11" s="25"/>
+      <c r="BW11" s="25"/>
+      <c r="BX11" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="25">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="25"/>
+      <c r="CA11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB11" s="27">
+        <v>30</v>
+      </c>
+      <c r="CC11" s="25"/>
+      <c r="CD11" s="25"/>
+      <c r="CE11" s="25">
+        <v>1</v>
+      </c>
+      <c r="CF11" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="25"/>
+      <c r="CH11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI11" s="27">
+        <v>30</v>
+      </c>
+      <c r="CJ11" s="25"/>
+      <c r="CK11" s="25"/>
+      <c r="CL11" s="25">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="25">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="25"/>
+      <c r="CO11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP11" s="27">
+        <v>30</v>
+      </c>
+      <c r="CQ11" s="25"/>
+      <c r="CR11" s="25"/>
+      <c r="CS11" s="25">
+        <v>1</v>
+      </c>
+      <c r="CT11" s="25">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="25"/>
+      <c r="CV11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="CW11" s="27">
+        <v>30</v>
+      </c>
+      <c r="CX11" s="25"/>
+      <c r="CY11" s="25"/>
+      <c r="CZ11" s="25">
+        <v>1</v>
+      </c>
+      <c r="DA11" s="25">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="25"/>
+      <c r="DC11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="DD11" s="27">
+        <v>30</v>
+      </c>
+      <c r="DE11" s="25"/>
+      <c r="DF11" s="25"/>
+      <c r="DG11" s="25">
+        <v>1</v>
+      </c>
+      <c r="DH11" s="25">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="25"/>
+      <c r="DJ11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="DK11" s="27">
+        <v>30</v>
+      </c>
+      <c r="DL11" s="25"/>
+      <c r="DM11" s="25"/>
+      <c r="DN11" s="25">
+        <v>1</v>
+      </c>
+      <c r="DO11" s="25">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="25"/>
+      <c r="DQ11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="DR11" s="27">
+        <v>30</v>
+      </c>
+      <c r="DS11" s="25"/>
+      <c r="DT11" s="25"/>
+      <c r="DU11" s="25">
+        <v>1</v>
+      </c>
+      <c r="DV11" s="25">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="25"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:127">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="13">
+        <v>30</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" s="13">
+        <v>30</v>
+      </c>
+      <c r="M12" s="10">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>30</v>
+      </c>
+      <c r="T12" s="10">
+        <v>1</v>
+      </c>
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" s="13">
+        <v>30</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>30</v>
+      </c>
+      <c r="AH12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>30</v>
+      </c>
+      <c r="AO12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>30</v>
+      </c>
+      <c r="AV12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ12" s="13">
+        <v>30</v>
+      </c>
+      <c r="BC12" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG12" s="13">
+        <v>30</v>
+      </c>
+      <c r="BJ12" s="10">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN12" s="27">
+        <v>30</v>
+      </c>
+      <c r="BO12" s="25"/>
+      <c r="BP12" s="25"/>
+      <c r="BQ12" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="25"/>
+      <c r="BT12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="BU12" s="27">
+        <v>30</v>
+      </c>
+      <c r="BV12" s="25"/>
+      <c r="BW12" s="25"/>
+      <c r="BX12" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY12" s="25">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="25"/>
+      <c r="CA12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="CB12" s="27">
+        <v>30</v>
+      </c>
+      <c r="CC12" s="25"/>
+      <c r="CD12" s="25"/>
+      <c r="CE12" s="25">
+        <v>1</v>
+      </c>
+      <c r="CF12" s="25">
+        <v>0</v>
+      </c>
+      <c r="CG12" s="25"/>
+      <c r="CH12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="CI12" s="27">
+        <v>30</v>
+      </c>
+      <c r="CJ12" s="25"/>
+      <c r="CK12" s="25"/>
+      <c r="CL12" s="25">
+        <v>1</v>
+      </c>
+      <c r="CM12" s="25">
+        <v>0</v>
+      </c>
+      <c r="CN12" s="25"/>
+      <c r="CO12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="CP12" s="27">
+        <v>30</v>
+      </c>
+      <c r="CQ12" s="25"/>
+      <c r="CR12" s="25"/>
+      <c r="CS12" s="25">
+        <v>1</v>
+      </c>
+      <c r="CT12" s="25">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="25"/>
+      <c r="CV12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="CW12" s="27">
+        <v>30</v>
+      </c>
+      <c r="CX12" s="25"/>
+      <c r="CY12" s="25"/>
+      <c r="CZ12" s="25">
+        <v>1</v>
+      </c>
+      <c r="DA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="DB12" s="25"/>
+      <c r="DC12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="DD12" s="27">
+        <v>30</v>
+      </c>
+      <c r="DE12" s="25"/>
+      <c r="DF12" s="25"/>
+      <c r="DG12" s="25">
+        <v>1</v>
+      </c>
+      <c r="DH12" s="25">
+        <v>0</v>
+      </c>
+      <c r="DI12" s="25"/>
+      <c r="DJ12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="DK12" s="27">
+        <v>30</v>
+      </c>
+      <c r="DL12" s="25"/>
+      <c r="DM12" s="25"/>
+      <c r="DN12" s="25">
+        <v>1</v>
+      </c>
+      <c r="DO12" s="25">
+        <v>0</v>
+      </c>
+      <c r="DP12" s="25"/>
+      <c r="DQ12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="DR12" s="27">
+        <v>30</v>
+      </c>
+      <c r="DS12" s="25"/>
+      <c r="DT12" s="25"/>
+      <c r="DU12" s="25">
+        <v>1</v>
+      </c>
+      <c r="DV12" s="25">
+        <v>0</v>
+      </c>
+      <c r="DW12" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3743,7 +5894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B16384"/>
   <sheetViews>
@@ -3760,623 +5911,623 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="7" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="7" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="7" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>138</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="7" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="7" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="7" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="7" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="7" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="7" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="7" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="7" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="7" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="7" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="7" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>202</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="8" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="8" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="8" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>210</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="8" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="8" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="8" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="8" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="8" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="8" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="8" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="8" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="8" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:1">
@@ -53306,7 +55457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
